--- a/R Scripts/Dataset/CRQ2_1_UNIQUE.xlsx
+++ b/R Scripts/Dataset/CRQ2_1_UNIQUE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edusm\OneDrive\Documentos\uff\dissertacao\git\feature-toggles\R Scripts\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{618FBC27-54D5-4CAE-9DAF-526FA87C19AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A21CD683-8033-43C3-B1A1-17561CACC3D5}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{618FBC27-54D5-4CAE-9DAF-526FA87C19AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3C32FD82-C9A6-44C8-9995-AD991746A4E9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{346CFB6A-9EFD-4CCC-A69D-50950BF6F658}"/>
+    <workbookView xWindow="1530" yWindow="2130" windowWidth="15375" windowHeight="7875" xr2:uid="{346CFB6A-9EFD-4CCC-A69D-50950BF6F658}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>NUM_MERGES_100 COMMITS_SEM_FW</t>
+    <t>NUM_MERGES_PER_100_COMMITS_WO_FT</t>
   </si>
   <si>
-    <t>NUM_MERGES_100 COMMITS_COM_FW</t>
+    <t>NUM_MERGES_PER_100_COMMITS_WITH_FT</t>
   </si>
 </sst>
 </file>
@@ -421,14 +421,14 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
